--- a/data/output/seat_status_updated_classroom_image4.xlsx
+++ b/data/output/seat_status_updated_classroom_image4.xlsx
@@ -567,7 +567,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1336.1064453125</v>
+        <v>1336.106079101562</v>
       </c>
       <c r="B5" t="n">
         <v>686.2723999023438</v>
@@ -579,7 +579,7 @@
         <v>777.0477294921875</v>
       </c>
       <c r="E5" t="n">
-        <v>1403.14599609375</v>
+        <v>1403.145751953125</v>
       </c>
       <c r="F5" t="n">
         <v>731.6600341796875</v>
@@ -690,13 +690,13 @@
         <v>1550.970703125</v>
       </c>
       <c r="B9" t="n">
-        <v>747.9517822265625</v>
+        <v>747.9517211914062</v>
       </c>
       <c r="C9" t="n">
         <v>1600</v>
       </c>
       <c r="D9" t="n">
-        <v>833.1655883789062</v>
+        <v>833.1656494140625</v>
       </c>
       <c r="E9" t="n">
         <v>1575.4853515625</v>
@@ -720,13 +720,13 @@
         <v>271.2796020507812</v>
       </c>
       <c r="B10" t="n">
-        <v>694.2526245117188</v>
+        <v>694.2525634765625</v>
       </c>
       <c r="C10" t="n">
         <v>409.2316284179688</v>
       </c>
       <c r="D10" t="n">
-        <v>911.549072265625</v>
+        <v>911.5491333007812</v>
       </c>
       <c r="E10" t="n">
         <v>340.255615234375</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>437.582763671875</v>
+        <v>437.5827331542969</v>
       </c>
       <c r="B11" t="n">
         <v>728.7134399414062</v>
@@ -777,13 +777,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26.09969139099121</v>
+        <v>26.0997200012207</v>
       </c>
       <c r="B12" t="n">
         <v>719.3572998046875</v>
       </c>
       <c r="C12" t="n">
-        <v>298.4266662597656</v>
+        <v>298.4266357421875</v>
       </c>
       <c r="D12" t="n">
         <v>967.5455932617188</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8464860916137695</v>
+        <v>0.8464717864990234</v>
       </c>
       <c r="B16" t="n">
         <v>911.4614868164062</v>
@@ -909,7 +909,7 @@
         <v>1199.884033203125</v>
       </c>
       <c r="E16" t="n">
-        <v>69.37310791015625</v>
+        <v>69.37310028076172</v>
       </c>
       <c r="F16" t="n">
         <v>1055.672729492188</v>

--- a/data/output/seat_status_updated_classroom_image4.xlsx
+++ b/data/output/seat_status_updated_classroom_image4.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>387.4989929199219</v>
+        <v>387.53857421875</v>
       </c>
       <c r="B2" t="n">
-        <v>653.25048828125</v>
+        <v>653.3857421875</v>
       </c>
       <c r="C2" t="n">
-        <v>472.4252319335938</v>
+        <v>472.2325439453125</v>
       </c>
       <c r="D2" t="n">
-        <v>748.811279296875</v>
+        <v>747.7462768554688</v>
       </c>
       <c r="E2" t="n">
-        <v>429.9620971679688</v>
+        <v>429.8855590820312</v>
       </c>
       <c r="F2" t="n">
-        <v>701.0308837890625</v>
+        <v>700.5660400390625</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1395.833374023438</v>
+        <v>1396.124145507812</v>
       </c>
       <c r="B3" t="n">
-        <v>688.3797607421875</v>
+        <v>688.0584716796875</v>
       </c>
       <c r="C3" t="n">
-        <v>1466.283203125</v>
+        <v>1466.039306640625</v>
       </c>
       <c r="D3" t="n">
-        <v>763.9072265625</v>
+        <v>762.166748046875</v>
       </c>
       <c r="E3" t="n">
-        <v>1431.058349609375</v>
+        <v>1431.081787109375</v>
       </c>
       <c r="F3" t="n">
-        <v>726.1434936523438</v>
+        <v>725.1126098632812</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1114.36669921875</v>
+        <v>1114.324340820312</v>
       </c>
       <c r="B4" t="n">
-        <v>668.495849609375</v>
+        <v>668.3572387695312</v>
       </c>
       <c r="C4" t="n">
-        <v>1223.472534179688</v>
+        <v>1223.496337890625</v>
       </c>
       <c r="D4" t="n">
-        <v>792.5896606445312</v>
+        <v>792.5942993164062</v>
       </c>
       <c r="E4" t="n">
-        <v>1168.919677734375</v>
+        <v>1168.910400390625</v>
       </c>
       <c r="F4" t="n">
-        <v>730.542724609375</v>
+        <v>730.4757690429688</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1336.106079101562</v>
+        <v>1340.262573242188</v>
       </c>
       <c r="B5" t="n">
-        <v>686.2723999023438</v>
+        <v>686.3926391601562</v>
       </c>
       <c r="C5" t="n">
-        <v>1470.185424804688</v>
+        <v>1469.864013671875</v>
       </c>
       <c r="D5" t="n">
-        <v>777.0477294921875</v>
+        <v>776.080322265625</v>
       </c>
       <c r="E5" t="n">
-        <v>1403.145751953125</v>
+        <v>1405.063232421875</v>
       </c>
       <c r="F5" t="n">
-        <v>731.6600341796875</v>
+        <v>731.2364501953125</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>623.8554077148438</v>
+        <v>623.5716552734375</v>
       </c>
       <c r="B6" t="n">
-        <v>700.2987060546875</v>
+        <v>700.3339233398438</v>
       </c>
       <c r="C6" t="n">
-        <v>702.1885375976562</v>
+        <v>702.2952880859375</v>
       </c>
       <c r="D6" t="n">
-        <v>806.5177001953125</v>
+        <v>806.5224609375</v>
       </c>
       <c r="E6" t="n">
-        <v>663.02197265625</v>
+        <v>662.9334716796875</v>
       </c>
       <c r="F6" t="n">
-        <v>753.408203125</v>
+        <v>753.42822265625</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1506.943359375</v>
+        <v>1506.85107421875</v>
       </c>
       <c r="B7" t="n">
-        <v>729.6431884765625</v>
+        <v>729.7939453125</v>
       </c>
       <c r="C7" t="n">
-        <v>1595.126586914062</v>
+        <v>1595.077392578125</v>
       </c>
       <c r="D7" t="n">
-        <v>807.0366821289062</v>
+        <v>806.91552734375</v>
       </c>
       <c r="E7" t="n">
-        <v>1551.034912109375</v>
+        <v>1550.964233398438</v>
       </c>
       <c r="F7" t="n">
-        <v>768.3399658203125</v>
+        <v>768.354736328125</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1428.359619140625</v>
+        <v>1428.360595703125</v>
       </c>
       <c r="B8" t="n">
-        <v>748.8345947265625</v>
+        <v>748.83984375</v>
       </c>
       <c r="C8" t="n">
-        <v>1502.642456054688</v>
+        <v>1502.310424804688</v>
       </c>
       <c r="D8" t="n">
-        <v>813.881591796875</v>
+        <v>813.7318115234375</v>
       </c>
       <c r="E8" t="n">
-        <v>1465.5009765625</v>
+        <v>1465.33544921875</v>
       </c>
       <c r="F8" t="n">
-        <v>781.3580932617188</v>
+        <v>781.2858276367188</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1550.970703125</v>
+        <v>1550.44970703125</v>
       </c>
       <c r="B9" t="n">
-        <v>747.9517211914062</v>
+        <v>747.7885131835938</v>
       </c>
       <c r="C9" t="n">
         <v>1600</v>
       </c>
       <c r="D9" t="n">
-        <v>833.1656494140625</v>
+        <v>833.2363891601562</v>
       </c>
       <c r="E9" t="n">
-        <v>1575.4853515625</v>
+        <v>1575.224853515625</v>
       </c>
       <c r="F9" t="n">
-        <v>790.5587158203125</v>
+        <v>790.512451171875</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>271.2796020507812</v>
+        <v>271.3616943359375</v>
       </c>
       <c r="B10" t="n">
-        <v>694.2525634765625</v>
+        <v>694.3150024414062</v>
       </c>
       <c r="C10" t="n">
-        <v>409.2316284179688</v>
+        <v>409.3379211425781</v>
       </c>
       <c r="D10" t="n">
-        <v>911.5491333007812</v>
+        <v>910.948486328125</v>
       </c>
       <c r="E10" t="n">
-        <v>340.255615234375</v>
+        <v>340.3497924804688</v>
       </c>
       <c r="F10" t="n">
-        <v>802.90087890625</v>
+        <v>802.6317138671875</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>437.5827331542969</v>
+        <v>437.8712158203125</v>
       </c>
       <c r="B11" t="n">
-        <v>728.7134399414062</v>
+        <v>728.7171630859375</v>
       </c>
       <c r="C11" t="n">
-        <v>628.611572265625</v>
+        <v>629.0303955078125</v>
       </c>
       <c r="D11" t="n">
-        <v>908.7711181640625</v>
+        <v>908.8894653320312</v>
       </c>
       <c r="E11" t="n">
-        <v>533.09716796875</v>
+        <v>533.4508056640625</v>
       </c>
       <c r="F11" t="n">
-        <v>818.7423095703125</v>
+        <v>818.8033447265625</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26.0997200012207</v>
+        <v>25.80586433410645</v>
       </c>
       <c r="B12" t="n">
-        <v>719.3572998046875</v>
+        <v>719.600341796875</v>
       </c>
       <c r="C12" t="n">
-        <v>298.4266357421875</v>
+        <v>298.0232238769531</v>
       </c>
       <c r="D12" t="n">
-        <v>967.5455932617188</v>
+        <v>967.5479125976562</v>
       </c>
       <c r="E12" t="n">
-        <v>162.26318359375</v>
+        <v>161.91455078125</v>
       </c>
       <c r="F12" t="n">
-        <v>843.451416015625</v>
+        <v>843.5740966796875</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1188.168334960938</v>
+        <v>1188.499389648438</v>
       </c>
       <c r="B13" t="n">
-        <v>784.8294677734375</v>
+        <v>784.7295532226562</v>
       </c>
       <c r="C13" t="n">
-        <v>1381.584106445312</v>
+        <v>1381.759887695312</v>
       </c>
       <c r="D13" t="n">
-        <v>969.0352783203125</v>
+        <v>968.0286254882812</v>
       </c>
       <c r="E13" t="n">
-        <v>1284.876220703125</v>
+        <v>1285.129638671875</v>
       </c>
       <c r="F13" t="n">
-        <v>876.932373046875</v>
+        <v>876.3790893554688</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -837,22 +837,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>654.0990600585938</v>
+        <v>653.311279296875</v>
       </c>
       <c r="B14" t="n">
-        <v>808.9930419921875</v>
+        <v>807.0873413085938</v>
       </c>
       <c r="C14" t="n">
-        <v>910.7775268554688</v>
+        <v>910.8663940429688</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.875</v>
+        <v>1194.942993164062</v>
       </c>
       <c r="E14" t="n">
-        <v>782.4382934570312</v>
+        <v>782.0888671875</v>
       </c>
       <c r="F14" t="n">
-        <v>1001.934020996094</v>
+        <v>1001.01513671875</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -867,22 +867,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1264.326049804688</v>
+        <v>1263.119750976562</v>
       </c>
       <c r="B15" t="n">
-        <v>856.1771850585938</v>
+        <v>856.0560302734375</v>
       </c>
       <c r="C15" t="n">
-        <v>1592.697265625</v>
+        <v>1592.77099609375</v>
       </c>
       <c r="D15" t="n">
-        <v>1197.745361328125</v>
+        <v>1197.834350585938</v>
       </c>
       <c r="E15" t="n">
-        <v>1428.51171875</v>
+        <v>1427.9453125</v>
       </c>
       <c r="F15" t="n">
-        <v>1026.961303710938</v>
+        <v>1026.945190429688</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -897,22 +897,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8464717864990234</v>
+        <v>0.8616971969604492</v>
       </c>
       <c r="B16" t="n">
-        <v>911.4614868164062</v>
+        <v>911.426513671875</v>
       </c>
       <c r="C16" t="n">
-        <v>137.8997344970703</v>
+        <v>138.0195465087891</v>
       </c>
       <c r="D16" t="n">
-        <v>1199.884033203125</v>
+        <v>1199.853637695312</v>
       </c>
       <c r="E16" t="n">
-        <v>69.37310028076172</v>
+        <v>69.44062042236328</v>
       </c>
       <c r="F16" t="n">
-        <v>1055.672729492188</v>
+        <v>1055.64013671875</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -927,22 +927,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>424.4849243164062</v>
+        <v>423.2425231933594</v>
       </c>
       <c r="B17" t="n">
-        <v>932.9305419921875</v>
+        <v>933.0030517578125</v>
       </c>
       <c r="C17" t="n">
-        <v>784.2952880859375</v>
+        <v>784.4097900390625</v>
       </c>
       <c r="D17" t="n">
-        <v>1198.393798828125</v>
+        <v>1198.401977539062</v>
       </c>
       <c r="E17" t="n">
-        <v>604.39013671875</v>
+        <v>603.826171875</v>
       </c>
       <c r="F17" t="n">
-        <v>1065.662109375</v>
+        <v>1065.702514648438</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
